--- a/app/src/main/python/Labeldata.xlsx
+++ b/app/src/main/python/Labeldata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madni\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a07446fc8a9682b9/Desktop/new dat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57004E67-F846-4FBA-A8DC-59585A143D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_9593ED080EFA4DE35FAB7FCC9E7E9EB17A3AB090" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD94230F-30E9-43A1-9231-07C62CACDF95}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D874"/>
+  <dimension ref="A1:D1136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q812" sqref="Q812"/>
+    <sheetView tabSelected="1" topLeftCell="A811" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D827" sqref="D827:D1136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11938,13 +11938,13 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A825">
-        <v>3.9743748000000001</v>
+        <v>2.9424739999999998</v>
       </c>
       <c r="B825">
-        <v>-6.4191539999999998</v>
+        <v>-9.0503820000000008</v>
       </c>
       <c r="C825">
-        <v>6.1150903999999997</v>
+        <v>1.4772224</v>
       </c>
       <c r="D825">
         <v>3</v>
@@ -11952,13 +11952,13 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A826">
-        <v>3.8618473999999998</v>
+        <v>3.3351229999999998</v>
       </c>
       <c r="B826">
-        <v>-6.4957684999999996</v>
+        <v>-9.2538889999999991</v>
       </c>
       <c r="C826">
-        <v>6.1294556</v>
+        <v>1.5035586000000001</v>
       </c>
       <c r="D826">
         <v>3</v>
@@ -11966,13 +11966,13 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A827">
-        <v>3.8379053999999999</v>
+        <v>3.2465373999999998</v>
       </c>
       <c r="B827">
-        <v>-6.4814033999999996</v>
+        <v>-9.1700920000000004</v>
       </c>
       <c r="C827">
-        <v>6.1246669999999996</v>
+        <v>1.6184803000000001</v>
       </c>
       <c r="D827">
         <v>3</v>
@@ -11980,13 +11980,13 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A828">
-        <v>3.8211460000000002</v>
+        <v>3.4308909999999999</v>
       </c>
       <c r="B828">
-        <v>-6.4814033999999996</v>
+        <v>-9.1533329999999999</v>
       </c>
       <c r="C828">
-        <v>6.0696006000000002</v>
+        <v>1.6017208999999999</v>
       </c>
       <c r="D828">
         <v>3</v>
@@ -11994,13 +11994,13 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A829">
-        <v>3.8714241999999999</v>
+        <v>3.6128504000000001</v>
       </c>
       <c r="B829">
-        <v>-6.5173163000000001</v>
+        <v>-9.1030540000000002</v>
       </c>
       <c r="C829">
-        <v>6.0384760000000002</v>
+        <v>1.5945383</v>
       </c>
       <c r="D829">
         <v>3</v>
@@ -12008,13 +12008,13 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A830">
-        <v>3.7636850000000002</v>
+        <v>3.4715924</v>
       </c>
       <c r="B830">
-        <v>-6.5412583</v>
+        <v>-9.1317839999999997</v>
       </c>
       <c r="C830">
-        <v>6.13185</v>
+        <v>1.5562311</v>
       </c>
       <c r="D830">
         <v>3</v>
@@ -12022,13 +12022,13 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A831">
-        <v>3.7134068</v>
+        <v>3.3734302999999999</v>
       </c>
       <c r="B831">
-        <v>-6.5340756999999998</v>
+        <v>-9.2299469999999992</v>
       </c>
       <c r="C831">
-        <v>6.1629744000000004</v>
+        <v>1.4580687999999999</v>
       </c>
       <c r="D831">
         <v>3</v>
@@ -12036,13 +12036,13 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A832">
-        <v>3.7205894000000002</v>
+        <v>3.5362358</v>
       </c>
       <c r="B832">
-        <v>-6.4861917</v>
+        <v>-9.1389674999999997</v>
       </c>
       <c r="C832">
-        <v>6.1198790000000001</v>
+        <v>1.4317327</v>
       </c>
       <c r="D832">
         <v>3</v>
@@ -12050,13 +12050,13 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A833">
-        <v>3.9312792000000001</v>
+        <v>3.691859</v>
       </c>
       <c r="B833">
-        <v>-6.4981627</v>
+        <v>-9.0671420000000005</v>
       </c>
       <c r="C833">
-        <v>6.0384760000000002</v>
+        <v>1.3766659999999999</v>
       </c>
       <c r="D833">
         <v>3</v>
@@ -12064,13 +12064,13 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A834">
-        <v>4.0031049999999997</v>
+        <v>3.5122938000000001</v>
       </c>
       <c r="B834">
-        <v>-6.5292873</v>
+        <v>-9.0862949999999998</v>
       </c>
       <c r="C834">
-        <v>5.9977745999999996</v>
+        <v>1.4173674999999999</v>
       </c>
       <c r="D834">
         <v>3</v>
@@ -12078,13 +12078,13 @@
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A835">
-        <v>3.9743748000000001</v>
+        <v>3.4141316000000002</v>
       </c>
       <c r="B835">
-        <v>-6.5747770000000001</v>
+        <v>-9.0862949999999998</v>
       </c>
       <c r="C835">
-        <v>6.0193224000000001</v>
+        <v>1.4221558999999999</v>
       </c>
       <c r="D835">
         <v>3</v>
@@ -12092,13 +12092,13 @@
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A836">
-        <v>3.9504328000000002</v>
+        <v>3.4045548000000001</v>
       </c>
       <c r="B836">
-        <v>-6.5197105000000004</v>
+        <v>-9.0862949999999998</v>
       </c>
       <c r="C836">
-        <v>5.9738325999999997</v>
+        <v>1.3910311</v>
       </c>
       <c r="D836">
         <v>3</v>
@@ -12106,13 +12106,13 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A837">
-        <v>4.0701426999999999</v>
+        <v>3.41892</v>
       </c>
       <c r="B837">
-        <v>-6.5221046999999999</v>
+        <v>-9.1676979999999997</v>
       </c>
       <c r="C837">
-        <v>5.9451020000000003</v>
+        <v>1.3838485</v>
       </c>
       <c r="D837">
         <v>3</v>
@@ -12120,13 +12120,13 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A838">
-        <v>4.0509890000000004</v>
+        <v>3.4883517999999998</v>
       </c>
       <c r="B838">
-        <v>-6.5436525000000003</v>
+        <v>-9.1533329999999999</v>
       </c>
       <c r="C838">
-        <v>5.9091889999999996</v>
+        <v>1.4173674999999999</v>
       </c>
       <c r="D838">
         <v>3</v>
@@ -12134,13 +12134,13 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A839">
-        <v>4.0725369999999996</v>
+        <v>3.4955343999999999</v>
       </c>
       <c r="B839">
-        <v>-6.5412583</v>
+        <v>-9.07193</v>
       </c>
       <c r="C839">
-        <v>5.9594674000000003</v>
+        <v>1.4508862</v>
       </c>
       <c r="D839">
         <v>3</v>
@@ -12148,13 +12148,13 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840">
-        <v>4.0198646</v>
+        <v>3.3542766999999998</v>
       </c>
       <c r="B840">
-        <v>-6.5221046999999999</v>
+        <v>-9.0838999999999999</v>
       </c>
       <c r="C840">
-        <v>5.9618615999999998</v>
+        <v>1.4652514000000001</v>
       </c>
       <c r="D840">
         <v>3</v>
@@ -12162,13 +12162,13 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A841">
-        <v>4.0174703999999997</v>
+        <v>3.3111809999999999</v>
       </c>
       <c r="B841">
-        <v>-6.5484410000000004</v>
+        <v>-9.1772749999999998</v>
       </c>
       <c r="C841">
-        <v>5.9187659999999997</v>
+        <v>1.4413095</v>
       </c>
       <c r="D841">
         <v>3</v>
@@ -12176,13 +12176,13 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A842">
-        <v>3.9935284000000002</v>
+        <v>3.3758244999999998</v>
       </c>
       <c r="B842">
-        <v>-6.5915365000000001</v>
+        <v>-9.1796679999999995</v>
       </c>
       <c r="C842">
-        <v>5.8924300000000001</v>
+        <v>1.4077904999999999</v>
       </c>
       <c r="D842">
         <v>3</v>
@@ -12190,13 +12190,13 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A843">
-        <v>4.0270469999999996</v>
+        <v>3.4332851999999998</v>
       </c>
       <c r="B843">
-        <v>-6.5580176999999997</v>
+        <v>-9.1102369999999997</v>
       </c>
       <c r="C843">
-        <v>5.9403139999999999</v>
+        <v>1.3479356</v>
       </c>
       <c r="D843">
         <v>3</v>
@@ -12204,13 +12204,13 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A844">
-        <v>3.9432502</v>
+        <v>3.4883517999999998</v>
       </c>
       <c r="B844">
-        <v>-6.6298437000000003</v>
+        <v>-9.1533329999999999</v>
       </c>
       <c r="C844">
-        <v>5.8948239999999998</v>
+        <v>1.3120225999999999</v>
       </c>
       <c r="D844">
         <v>3</v>
@@ -12218,13 +12218,13 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A845">
-        <v>4.0390180000000004</v>
+        <v>3.4524387999999999</v>
       </c>
       <c r="B845">
-        <v>-6.5197105000000004</v>
+        <v>-9.1533329999999999</v>
       </c>
       <c r="C845">
-        <v>5.9546789999999996</v>
+        <v>1.352724</v>
       </c>
       <c r="D845">
         <v>3</v>
@@ -12232,13 +12232,13 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A846">
-        <v>3.9600095999999998</v>
+        <v>3.4021606000000002</v>
       </c>
       <c r="B846">
-        <v>-6.6418147000000003</v>
+        <v>-9.1222080000000005</v>
       </c>
       <c r="C846">
-        <v>5.9307369999999997</v>
+        <v>1.4341269000000001</v>
       </c>
       <c r="D846">
         <v>3</v>
@@ -12246,13 +12246,13 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A847">
-        <v>3.8642416000000002</v>
+        <v>3.3758244999999998</v>
       </c>
       <c r="B847">
-        <v>-6.6346319999999999</v>
+        <v>-9.1030540000000002</v>
       </c>
       <c r="C847">
-        <v>5.916372</v>
+        <v>1.4820108000000001</v>
       </c>
       <c r="D847">
         <v>3</v>
@@ -12260,13 +12260,13 @@
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A848">
-        <v>3.9264907999999998</v>
+        <v>3.3973722</v>
       </c>
       <c r="B848">
-        <v>-6.6011132999999997</v>
+        <v>-9.095872</v>
       </c>
       <c r="C848">
-        <v>5.9211600000000004</v>
+        <v>1.4580687999999999</v>
       </c>
       <c r="D848">
         <v>3</v>
@@ -12274,13 +12274,13 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849">
-        <v>3.9552212</v>
+        <v>3.4021606000000002</v>
       </c>
       <c r="B849">
-        <v>-6.5508350000000002</v>
+        <v>-9.0815070000000002</v>
       </c>
       <c r="C849">
-        <v>5.9786210000000004</v>
+        <v>1.4269442999999999</v>
       </c>
       <c r="D849">
         <v>3</v>
@@ -12288,13 +12288,13 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850">
-        <v>3.9480385999999998</v>
+        <v>3.3806129</v>
       </c>
       <c r="B850">
-        <v>-6.5771712999999998</v>
+        <v>-9.1246019999999994</v>
       </c>
       <c r="C850">
-        <v>5.9474964000000003</v>
+        <v>1.364695</v>
       </c>
       <c r="D850">
         <v>3</v>
@@ -12302,13 +12302,13 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851">
-        <v>3.9743748000000001</v>
+        <v>3.3542766999999998</v>
       </c>
       <c r="B851">
-        <v>-6.5652002999999999</v>
+        <v>-9.1150254999999998</v>
       </c>
       <c r="C851">
-        <v>5.904401</v>
+        <v>1.3623008000000001</v>
       </c>
       <c r="D851">
         <v>3</v>
@@ -12316,13 +12316,13 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852">
-        <v>4.0462008000000003</v>
+        <v>3.3686419000000001</v>
       </c>
       <c r="B852">
-        <v>-6.5795655000000002</v>
+        <v>-9.0886890000000005</v>
       </c>
       <c r="C852">
-        <v>5.8948239999999998</v>
+        <v>1.3407530000000001</v>
       </c>
       <c r="D852">
         <v>3</v>
@@ -12330,13 +12330,13 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A853">
-        <v>4.1539396999999996</v>
+        <v>3.406949</v>
       </c>
       <c r="B853">
-        <v>-6.6346319999999999</v>
+        <v>-9.1485439999999993</v>
       </c>
       <c r="C853">
-        <v>5.789479</v>
+        <v>1.3694834</v>
       </c>
       <c r="D853">
         <v>3</v>
@@ -12344,13 +12344,13 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A854">
-        <v>4.0485949999999997</v>
+        <v>3.3590650000000002</v>
       </c>
       <c r="B854">
-        <v>-6.5652002999999999</v>
+        <v>-9.1892449999999997</v>
       </c>
       <c r="C854">
-        <v>5.8828529999999999</v>
+        <v>1.3886369999999999</v>
       </c>
       <c r="D854">
         <v>3</v>
@@ -12358,13 +12358,13 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A855">
-        <v>3.9360675999999999</v>
+        <v>3.2944214000000001</v>
       </c>
       <c r="B855">
-        <v>-6.5436525000000003</v>
+        <v>-9.1533329999999999</v>
       </c>
       <c r="C855">
-        <v>5.9834094000000002</v>
+        <v>1.4317327</v>
       </c>
       <c r="D855">
         <v>3</v>
@@ -12372,13 +12372,13 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A856">
-        <v>3.9240965999999999</v>
+        <v>3.2273839</v>
       </c>
       <c r="B856">
-        <v>-6.5723830000000003</v>
+        <v>-9.0551700000000004</v>
       </c>
       <c r="C856">
-        <v>5.9355254000000004</v>
+        <v>1.4891934</v>
       </c>
       <c r="D856">
         <v>3</v>
@@ -12386,13 +12386,13 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A857">
-        <v>4.1084500000000004</v>
+        <v>3.2513258</v>
       </c>
       <c r="B857">
-        <v>-6.6130842999999997</v>
+        <v>-9.0048910000000006</v>
       </c>
       <c r="C857">
-        <v>5.8421516000000002</v>
+        <v>1.5346833</v>
       </c>
       <c r="D857">
         <v>3</v>
@@ -12400,13 +12400,13 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A858">
-        <v>4.1419686999999996</v>
+        <v>3.2776619999999999</v>
       </c>
       <c r="B858">
-        <v>-6.5771712999999998</v>
+        <v>-9.0048910000000006</v>
       </c>
       <c r="C858">
-        <v>5.858911</v>
+        <v>1.5969325000000001</v>
       </c>
       <c r="D858">
         <v>3</v>
@@ -12414,13 +12414,13 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A859">
-        <v>4.0222588000000004</v>
+        <v>3.2249897000000001</v>
       </c>
       <c r="B859">
-        <v>-6.5915365000000001</v>
+        <v>-8.9713729999999998</v>
       </c>
       <c r="C859">
-        <v>5.8972179999999996</v>
+        <v>1.6089035</v>
       </c>
       <c r="D859">
         <v>3</v>
@@ -12428,13 +12428,13 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860">
-        <v>3.9552212</v>
+        <v>3.3375173</v>
       </c>
       <c r="B860">
-        <v>-6.6059017000000004</v>
+        <v>-9.07193</v>
       </c>
       <c r="C860">
-        <v>5.9115833999999996</v>
+        <v>1.5610195</v>
       </c>
       <c r="D860">
         <v>3</v>
@@ -12442,13 +12442,13 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861">
-        <v>3.9312792000000001</v>
+        <v>3.4380736000000001</v>
       </c>
       <c r="B861">
-        <v>-6.61069</v>
+        <v>-9.2036099999999994</v>
       </c>
       <c r="C861">
-        <v>5.8636993999999998</v>
+        <v>1.4676456</v>
       </c>
       <c r="D861">
         <v>3</v>
@@ -12456,13 +12456,13 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A862">
-        <v>4.0605659999999997</v>
+        <v>3.5027170000000001</v>
       </c>
       <c r="B862">
-        <v>-6.6418147000000003</v>
+        <v>-9.3209269999999993</v>
       </c>
       <c r="C862">
-        <v>5.8565170000000002</v>
+        <v>1.3359646000000001</v>
       </c>
       <c r="D862">
         <v>3</v>
@@ -12470,13 +12470,13 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A863">
-        <v>4.0054993999999997</v>
+        <v>3.3758244999999998</v>
       </c>
       <c r="B863">
-        <v>-6.6154785</v>
+        <v>-9.2921960000000006</v>
       </c>
       <c r="C863">
-        <v>5.8086323999999996</v>
+        <v>1.2042835000000001</v>
       </c>
       <c r="D863">
         <v>3</v>
@@ -12484,13 +12484,13 @@
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A864">
-        <v>3.9935284000000002</v>
+        <v>3.2680851999999998</v>
       </c>
       <c r="B864">
-        <v>-6.6705449999999997</v>
+        <v>-9.2395239999999994</v>
       </c>
       <c r="C864">
-        <v>5.8924300000000001</v>
+        <v>1.1803414999999999</v>
       </c>
       <c r="D864">
         <v>3</v>
@@ -12498,13 +12498,13 @@
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A865">
-        <v>3.9719806000000002</v>
+        <v>3.2393548000000001</v>
       </c>
       <c r="B865">
-        <v>-6.5915365000000001</v>
+        <v>-9.4190880000000003</v>
       </c>
       <c r="C865">
-        <v>5.9235544000000004</v>
+        <v>1.1348516</v>
       </c>
       <c r="D865">
         <v>3</v>
@@ -12512,13 +12512,13 @@
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A866">
-        <v>4.0078936000000001</v>
+        <v>3.0885202999999999</v>
       </c>
       <c r="B866">
-        <v>-6.6370262999999996</v>
+        <v>-9.5292224999999995</v>
       </c>
       <c r="C866">
-        <v>5.8756703999999997</v>
+        <v>1.0438719999999999</v>
       </c>
       <c r="D866">
         <v>3</v>
@@ -12526,13 +12526,13 @@
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A867">
-        <v>4.0222588000000004</v>
+        <v>2.9831753000000001</v>
       </c>
       <c r="B867">
-        <v>-6.9913683000000004</v>
+        <v>-9.3879640000000002</v>
       </c>
       <c r="C867">
-        <v>5.2914849999999998</v>
+        <v>0.97444010000000003</v>
       </c>
       <c r="D867">
         <v>3</v>
@@ -12540,13 +12540,13 @@
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A868">
-        <v>4.0150759999999996</v>
+        <v>2.89459</v>
       </c>
       <c r="B868">
-        <v>-6.4478846000000001</v>
+        <v>-9.2945899999999995</v>
       </c>
       <c r="C868">
-        <v>6.2156466999999997</v>
+        <v>0.92655604999999996</v>
       </c>
       <c r="D868">
         <v>3</v>
@@ -12554,13 +12554,13 @@
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A869">
-        <v>3.7900212</v>
+        <v>2.8634653000000001</v>
       </c>
       <c r="B869">
-        <v>-6.3928180000000001</v>
+        <v>-9.2562829999999998</v>
       </c>
       <c r="C869">
-        <v>6.1222729999999999</v>
+        <v>0.82599955999999997</v>
       </c>
       <c r="D869">
         <v>3</v>
@@ -12568,13 +12568,13 @@
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A870">
-        <v>3.9193082000000001</v>
+        <v>2.8467060000000002</v>
       </c>
       <c r="B870">
-        <v>-6.5197105000000004</v>
+        <v>-9.1820629999999994</v>
       </c>
       <c r="C870">
-        <v>6.1103019999999999</v>
+        <v>0.69192430000000005</v>
       </c>
       <c r="D870">
         <v>3</v>
@@ -12582,13 +12582,13 @@
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A871">
-        <v>4.0414123999999996</v>
+        <v>2.7413609999999999</v>
       </c>
       <c r="B871">
-        <v>-6.6729393000000004</v>
+        <v>-9.0862949999999998</v>
       </c>
       <c r="C871">
-        <v>5.8780646000000001</v>
+        <v>0.82599955999999997</v>
       </c>
       <c r="D871">
         <v>3</v>
@@ -12596,13 +12596,13 @@
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A872">
-        <v>4.0054993999999997</v>
+        <v>2.5953146999999999</v>
       </c>
       <c r="B872">
-        <v>-6.6896987000000001</v>
+        <v>-9.1174189999999999</v>
       </c>
       <c r="C872">
-        <v>5.8565170000000002</v>
+        <v>0.84754739999999995</v>
       </c>
       <c r="D872">
         <v>3</v>
@@ -12610,13 +12610,13 @@
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A873">
-        <v>3.9456443999999999</v>
+        <v>2.4803929999999998</v>
       </c>
       <c r="B873">
-        <v>-6.6992754999999997</v>
+        <v>-9.0886890000000005</v>
       </c>
       <c r="C873">
-        <v>5.8732759999999997</v>
+        <v>0.72544310000000001</v>
       </c>
       <c r="D873">
         <v>3</v>
@@ -12624,15 +12624,3683 @@
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A874">
-        <v>3.8163575999999999</v>
+        <v>2.3989902000000001</v>
       </c>
       <c r="B874">
+        <v>-9.0240460000000002</v>
+      </c>
+      <c r="C874">
+        <v>0.68713590000000002</v>
+      </c>
+      <c r="D874">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>2.3774424000000001</v>
+      </c>
+      <c r="B875">
+        <v>-9.0551700000000004</v>
+      </c>
+      <c r="C875">
+        <v>0.70868370000000003</v>
+      </c>
+      <c r="D875">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>2.336741</v>
+      </c>
+      <c r="B876">
+        <v>-9.3496570000000006</v>
+      </c>
+      <c r="C876">
+        <v>0.7038953</v>
+      </c>
+      <c r="D876">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>2.2361844</v>
+      </c>
+      <c r="B877">
+        <v>-9.4454250000000002</v>
+      </c>
+      <c r="C877">
+        <v>0.65601129999999996</v>
+      </c>
+      <c r="D877">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>2.1667526000000001</v>
+      </c>
+      <c r="B878">
+        <v>-9.1150254999999998</v>
+      </c>
+      <c r="C878">
+        <v>0.54827219999999999</v>
+      </c>
+      <c r="D878">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>2.2002714000000001</v>
+      </c>
+      <c r="B879">
+        <v>-8.8684224999999994</v>
+      </c>
+      <c r="C879">
+        <v>0.45489833000000002</v>
+      </c>
+      <c r="D879">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>2.2098482000000002</v>
+      </c>
+      <c r="B880">
+        <v>-8.8708159999999996</v>
+      </c>
+      <c r="C880">
+        <v>0.30645781999999999</v>
+      </c>
+      <c r="D880">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>2.4277204999999999</v>
+      </c>
+      <c r="B881">
+        <v>-8.9282769999999996</v>
+      </c>
+      <c r="C881">
+        <v>0.31842880000000001</v>
+      </c>
+      <c r="D881">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>2.4492683</v>
+      </c>
+      <c r="B882">
+        <v>-8.7918079999999996</v>
+      </c>
+      <c r="C882">
+        <v>0.26815060000000002</v>
+      </c>
+      <c r="D882">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>2.2625206000000002</v>
+      </c>
+      <c r="B883">
+        <v>-8.6433680000000006</v>
+      </c>
+      <c r="C883">
+        <v>0.35194764000000001</v>
+      </c>
+      <c r="D883">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>2.1332338000000002</v>
+      </c>
+      <c r="B884">
+        <v>-8.5739354999999993</v>
+      </c>
+      <c r="C884">
+        <v>0.40701428000000001</v>
+      </c>
+      <c r="D884">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>1.9584569999999999</v>
+      </c>
+      <c r="B885">
+        <v>-8.5499934999999994</v>
+      </c>
+      <c r="C885">
+        <v>0.6823475</v>
+      </c>
+      <c r="D885">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>1.9009962</v>
+      </c>
+      <c r="B886">
+        <v>-8.3033905000000008</v>
+      </c>
+      <c r="C886">
+        <v>0.96965170000000001</v>
+      </c>
+      <c r="D886">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>2.2074539999999998</v>
+      </c>
+      <c r="B887">
+        <v>-7.8053970000000001</v>
+      </c>
+      <c r="C887">
+        <v>0.95528650000000004</v>
+      </c>
+      <c r="D887">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>2.5306711000000002</v>
+      </c>
+      <c r="B888">
+        <v>-7.156568</v>
+      </c>
+      <c r="C888">
+        <v>1.0007763000000001</v>
+      </c>
+      <c r="D888">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>2.3630772000000002</v>
+      </c>
+      <c r="B889">
+        <v>-6.5556235000000003</v>
+      </c>
+      <c r="C889">
+        <v>0.96725749999999999</v>
+      </c>
+      <c r="D889">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>1.9369092000000001</v>
+      </c>
+      <c r="B890">
+        <v>-6.143821</v>
+      </c>
+      <c r="C890">
+        <v>0.81402856000000001</v>
+      </c>
+      <c r="D890">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>1.6089035</v>
+      </c>
+      <c r="B891">
+        <v>-6.1103019999999999</v>
+      </c>
+      <c r="C891">
+        <v>0.87148939999999997</v>
+      </c>
+      <c r="D891">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>1.4149733</v>
+      </c>
+      <c r="B892">
+        <v>-6.2731075000000001</v>
+      </c>
+      <c r="C892">
+        <v>0.96486329999999998</v>
+      </c>
+      <c r="D892">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>1.4987702000000001</v>
+      </c>
+      <c r="B893">
+        <v>-6.3497224000000001</v>
+      </c>
+      <c r="C893">
+        <v>1.3599066</v>
+      </c>
+      <c r="D893">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>1.6711528</v>
+      </c>
+      <c r="B894">
+        <v>-6.2012815000000003</v>
+      </c>
+      <c r="C894">
+        <v>1.8148048999999999</v>
+      </c>
+      <c r="D894">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>1.8962076999999999</v>
+      </c>
+      <c r="B895">
+        <v>-6.08636</v>
+      </c>
+      <c r="C895">
+        <v>1.8243817</v>
+      </c>
+      <c r="D895">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>1.9656396</v>
+      </c>
+      <c r="B896">
+        <v>-5.9283429999999999</v>
+      </c>
+      <c r="C896">
+        <v>1.4915875999999999</v>
+      </c>
+      <c r="D896">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>1.8650831000000001</v>
+      </c>
+      <c r="B897">
+        <v>-5.7511716000000002</v>
+      </c>
+      <c r="C897">
+        <v>0.94810384999999997</v>
+      </c>
+      <c r="D897">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>1.6759412</v>
+      </c>
+      <c r="B898">
+        <v>-5.7990556</v>
+      </c>
+      <c r="C898">
+        <v>0.75896189999999997</v>
+      </c>
+      <c r="D898">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>1.4700397999999999</v>
+      </c>
+      <c r="B899">
+        <v>-6.0696006000000002</v>
+      </c>
+      <c r="C899">
+        <v>0.87867200000000001</v>
+      </c>
+      <c r="D899">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>1.4796165999999999</v>
+      </c>
+      <c r="B900">
+        <v>-6.3497224000000001</v>
+      </c>
+      <c r="C900">
+        <v>1.079785</v>
+      </c>
+      <c r="D900">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>1.5155296</v>
+      </c>
+      <c r="B901">
+        <v>-6.6178727000000004</v>
+      </c>
+      <c r="C901">
+        <v>1.0630256</v>
+      </c>
+      <c r="D901">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>1.4652514000000001</v>
+      </c>
+      <c r="B902">
+        <v>-6.7615246999999998</v>
+      </c>
+      <c r="C902">
+        <v>0.93373865</v>
+      </c>
+      <c r="D902">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>1.4556746</v>
+      </c>
+      <c r="B903">
+        <v>-6.9889739999999998</v>
+      </c>
+      <c r="C903">
+        <v>0.62488663</v>
+      </c>
+      <c r="D903">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>1.6855180000000001</v>
+      </c>
+      <c r="B904">
+        <v>-7.3504987000000002</v>
+      </c>
+      <c r="C904">
+        <v>0.37828386000000003</v>
+      </c>
+      <c r="D904">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>1.8674773</v>
+      </c>
+      <c r="B905">
+        <v>-7.6641389999999996</v>
+      </c>
+      <c r="C905">
+        <v>0.16280571999999999</v>
+      </c>
+      <c r="D905">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>1.9009962</v>
+      </c>
+      <c r="B906">
+        <v>-7.9969330000000003</v>
+      </c>
+      <c r="C906">
+        <v>0.15801730999999999</v>
+      </c>
+      <c r="D906">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>1.8986019000000001</v>
+      </c>
+      <c r="B907">
+        <v>-8.3321210000000008</v>
+      </c>
+      <c r="C907">
+        <v>0.24899697000000001</v>
+      </c>
+      <c r="D907">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>1.9464859999999999</v>
+      </c>
+      <c r="B908">
+        <v>-8.5523880000000005</v>
+      </c>
+      <c r="C908">
+        <v>0.44771572999999998</v>
+      </c>
+      <c r="D908">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>1.9704280000000001</v>
+      </c>
+      <c r="B909">
+        <v>-8.5595700000000008</v>
+      </c>
+      <c r="C909">
+        <v>0.77093299999999998</v>
+      </c>
+      <c r="D909">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>2.0231004000000001</v>
+      </c>
+      <c r="B910">
+        <v>-8.4422540000000001</v>
+      </c>
+      <c r="C910">
+        <v>0.88346040000000003</v>
+      </c>
+      <c r="D910">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>2.0614075999999999</v>
+      </c>
+      <c r="B911">
+        <v>-8.3895820000000008</v>
+      </c>
+      <c r="C911">
+        <v>1.0414777</v>
+      </c>
+      <c r="D911">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>2.2505495999999998</v>
+      </c>
+      <c r="B912">
+        <v>-8.5236579999999993</v>
+      </c>
+      <c r="C912">
+        <v>1.1468225999999999</v>
+      </c>
+      <c r="D912">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>2.3798366</v>
+      </c>
+      <c r="B913">
+        <v>-8.8277210000000004</v>
+      </c>
+      <c r="C913">
+        <v>1.2880806</v>
+      </c>
+      <c r="D913">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>2.2984334999999998</v>
+      </c>
+      <c r="B914">
+        <v>-9.0862949999999998</v>
+      </c>
+      <c r="C914">
+        <v>1.6065092999999999</v>
+      </c>
+      <c r="D914">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>2.3630772000000002</v>
+      </c>
+      <c r="B915">
+        <v>-9.5579529999999995</v>
+      </c>
+      <c r="C915">
+        <v>2.3582888</v>
+      </c>
+      <c r="D915">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>2.7222073</v>
+      </c>
+      <c r="B916">
+        <v>-9.9194765</v>
+      </c>
+      <c r="C916">
+        <v>2.8347349999999998</v>
+      </c>
+      <c r="D916">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>3.1531636999999999</v>
+      </c>
+      <c r="B917">
+        <v>-10.12059</v>
+      </c>
+      <c r="C917">
+        <v>2.8778305</v>
+      </c>
+      <c r="D917">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>3.0980970000000001</v>
+      </c>
+      <c r="B918">
+        <v>-9.9553899999999995</v>
+      </c>
+      <c r="C918">
+        <v>2.8491</v>
+      </c>
+      <c r="D918">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>2.8419175000000001</v>
+      </c>
+      <c r="B919">
+        <v>-9.7710360000000005</v>
+      </c>
+      <c r="C919">
+        <v>2.6767175000000001</v>
+      </c>
+      <c r="D919">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>2.9161377000000002</v>
+      </c>
+      <c r="B920">
+        <v>-9.8620160000000006</v>
+      </c>
+      <c r="C920">
+        <v>2.5929205</v>
+      </c>
+      <c r="D920">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>3.1435868999999999</v>
+      </c>
+      <c r="B921">
+        <v>-10.462960000000001</v>
+      </c>
+      <c r="C921">
+        <v>2.6431987000000001</v>
+      </c>
+      <c r="D921">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>3.4548329999999998</v>
+      </c>
+      <c r="B922">
+        <v>-10.771812000000001</v>
+      </c>
+      <c r="C922">
+        <v>3.2489316000000001</v>
+      </c>
+      <c r="D922">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>3.4715924</v>
+      </c>
+      <c r="B923">
+        <v>-10.757447000000001</v>
+      </c>
+      <c r="C923">
+        <v>4.2305545999999996</v>
+      </c>
+      <c r="D923">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>3.5098995999999998</v>
+      </c>
+      <c r="B924">
+        <v>-11.054328999999999</v>
+      </c>
+      <c r="C924">
+        <v>4.5585599999999999</v>
+      </c>
+      <c r="D924">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>3.7469256</v>
+      </c>
+      <c r="B925">
+        <v>-11.449370999999999</v>
+      </c>
+      <c r="C925">
+        <v>4.1108440000000002</v>
+      </c>
+      <c r="D925">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>3.8211460000000002</v>
+      </c>
+      <c r="B926">
+        <v>-11.722310999999999</v>
+      </c>
+      <c r="C926">
+        <v>3.9983168</v>
+      </c>
+      <c r="D926">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>3.5434184000000002</v>
+      </c>
+      <c r="B927">
+        <v>-11.856386000000001</v>
+      </c>
+      <c r="C927">
+        <v>4.3287167999999996</v>
+      </c>
+      <c r="D927">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>3.4332851999999998</v>
+      </c>
+      <c r="B928">
+        <v>-12.026375</v>
+      </c>
+      <c r="C928">
+        <v>4.5250409999999999</v>
+      </c>
+      <c r="D928">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>3.4883517999999998</v>
+      </c>
+      <c r="B929">
+        <v>-11.695974</v>
+      </c>
+      <c r="C929">
+        <v>4.6279916999999999</v>
+      </c>
+      <c r="D929">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>3.6703112</v>
+      </c>
+      <c r="B930">
+        <v>-11.370362999999999</v>
+      </c>
+      <c r="C930">
+        <v>4.4412440000000002</v>
+      </c>
+      <c r="D930">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>3.86903</v>
+      </c>
+      <c r="B931">
+        <v>-11.267412</v>
+      </c>
+      <c r="C931">
+        <v>4.0438065999999999</v>
+      </c>
+      <c r="D931">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>3.8594531999999999</v>
+      </c>
+      <c r="B932">
+        <v>-10.944195000000001</v>
+      </c>
+      <c r="C932">
+        <v>3.9264907999999998</v>
+      </c>
+      <c r="D932">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>3.6942531999999999</v>
+      </c>
+      <c r="B933">
+        <v>-10.348039</v>
+      </c>
+      <c r="C933">
+        <v>3.9360675999999999</v>
+      </c>
+      <c r="D933">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>3.4668040000000002</v>
+      </c>
+      <c r="B934">
+        <v>-9.8548340000000003</v>
+      </c>
+      <c r="C934">
+        <v>4.0605659999999997</v>
+      </c>
+      <c r="D934">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>3.2154129</v>
+      </c>
+      <c r="B935">
+        <v>-9.6249900000000004</v>
+      </c>
+      <c r="C935">
+        <v>4.0821136999999998</v>
+      </c>
+      <c r="D935">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>3.1004912999999998</v>
+      </c>
+      <c r="B936">
+        <v>-9.8500449999999997</v>
+      </c>
+      <c r="C936">
+        <v>4.1874589999999996</v>
+      </c>
+      <c r="D936">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>3.3638534999999998</v>
+      </c>
+      <c r="B937">
+        <v>-10.216358</v>
+      </c>
+      <c r="C937">
+        <v>4.4651860000000001</v>
+      </c>
+      <c r="D937">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>3.6966473999999998</v>
+      </c>
+      <c r="B938">
+        <v>-10.336067999999999</v>
+      </c>
+      <c r="C938">
+        <v>4.5825019999999999</v>
+      </c>
+      <c r="D938">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>3.6032736000000001</v>
+      </c>
+      <c r="B939">
+        <v>-10.125379000000001</v>
+      </c>
+      <c r="C939">
+        <v>4.6303859999999997</v>
+      </c>
+      <c r="D939">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>3.5075053999999999</v>
+      </c>
+      <c r="B940">
+        <v>-9.9386299999999999</v>
+      </c>
+      <c r="C940">
+        <v>4.6064439999999998</v>
+      </c>
+      <c r="D940">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>3.4859575999999999</v>
+      </c>
+      <c r="B941">
+        <v>-9.7399120000000003</v>
+      </c>
+      <c r="C941">
+        <v>4.7429136999999999</v>
+      </c>
+      <c r="D941">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>3.4476504000000001</v>
+      </c>
+      <c r="B942">
+        <v>-9.7686419999999998</v>
+      </c>
+      <c r="C942">
+        <v>5.2938789999999996</v>
+      </c>
+      <c r="D942">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>3.2800562000000002</v>
+      </c>
+      <c r="B943">
+        <v>-9.9506019999999999</v>
+      </c>
+      <c r="C943">
+        <v>5.8062379999999996</v>
+      </c>
+      <c r="D943">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>3.2321723000000002</v>
+      </c>
+      <c r="B944">
+        <v>-9.9170829999999999</v>
+      </c>
+      <c r="C944">
+        <v>5.8421516000000002</v>
+      </c>
+      <c r="D944">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>2.9161377000000002</v>
+      </c>
+      <c r="B945">
+        <v>-9.4286650000000005</v>
+      </c>
+      <c r="C945">
+        <v>5.8038439999999998</v>
+      </c>
+      <c r="D945">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>2.6839</v>
+      </c>
+      <c r="B946">
+        <v>-8.8205384999999996</v>
+      </c>
+      <c r="C946">
+        <v>5.5859719999999999</v>
+      </c>
+      <c r="D946">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>2.7557260000000001</v>
+      </c>
+      <c r="B947">
+        <v>-8.6122429999999994</v>
+      </c>
+      <c r="C947">
+        <v>5.6841340000000002</v>
+      </c>
+      <c r="D947">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>2.8275522999999998</v>
+      </c>
+      <c r="B948">
+        <v>-8.3752165000000005</v>
+      </c>
+      <c r="C948">
+        <v>5.8301806000000003</v>
+      </c>
+      <c r="D948">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>2.4971523000000002</v>
+      </c>
+      <c r="B949">
+        <v>-7.829339</v>
+      </c>
+      <c r="C949">
+        <v>5.9905920000000004</v>
+      </c>
+      <c r="D949">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>2.432509</v>
+      </c>
+      <c r="B950">
+        <v>-7.5276693999999997</v>
+      </c>
+      <c r="C950">
+        <v>5.8852469999999997</v>
+      </c>
+      <c r="D950">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>2.6719290999999998</v>
+      </c>
+      <c r="B951">
+        <v>-7.5276693999999997</v>
+      </c>
+      <c r="C951">
+        <v>5.6649804000000001</v>
+      </c>
+      <c r="D951">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>2.6264392999999999</v>
+      </c>
+      <c r="B952">
+        <v>-7.3912000000000004</v>
+      </c>
+      <c r="C952">
+        <v>5.1645922999999998</v>
+      </c>
+      <c r="D952">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>2.4468741000000001</v>
+      </c>
+      <c r="B953">
+        <v>-7.2212113999999996</v>
+      </c>
+      <c r="C953">
+        <v>4.6686934999999998</v>
+      </c>
+      <c r="D953">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>2.3989902000000001</v>
+      </c>
+      <c r="B954">
+        <v>-7.2714895999999998</v>
+      </c>
+      <c r="C954">
+        <v>4.4412440000000002</v>
+      </c>
+      <c r="D954">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>2.2936451</v>
+      </c>
+      <c r="B955">
+        <v>-7.6976576000000003</v>
+      </c>
+      <c r="C955">
+        <v>3.8833951999999998</v>
+      </c>
+      <c r="D955">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>2.2433670000000001</v>
+      </c>
+      <c r="B956">
+        <v>-8.3057850000000002</v>
+      </c>
+      <c r="C956">
+        <v>3.9552212</v>
+      </c>
+      <c r="D956">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>2.7198129999999998</v>
+      </c>
+      <c r="B957">
+        <v>-8.6888570000000005</v>
+      </c>
+      <c r="C957">
+        <v>5.0784010000000004</v>
+      </c>
+      <c r="D957">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>2.6839</v>
+      </c>
+      <c r="B958">
+        <v>-8.2986020000000007</v>
+      </c>
+      <c r="C958">
+        <v>4.7165774999999996</v>
+      </c>
+      <c r="D958">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>2.4229321000000001</v>
+      </c>
+      <c r="B959">
+        <v>-8.5883009999999995</v>
+      </c>
+      <c r="C959">
+        <v>3.58412</v>
+      </c>
+      <c r="D959">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>2.4157495</v>
+      </c>
+      <c r="B960">
+        <v>-9.5364050000000002</v>
+      </c>
+      <c r="C960">
+        <v>1.9560628</v>
+      </c>
+      <c r="D960">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>2.0997150000000002</v>
+      </c>
+      <c r="B961">
+        <v>-10.266636</v>
+      </c>
+      <c r="C961">
+        <v>1.9249381999999999</v>
+      </c>
+      <c r="D961">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>3.0119056999999998</v>
+      </c>
+      <c r="B962">
+        <v>-13.051093</v>
+      </c>
+      <c r="C962">
+        <v>10.470143</v>
+      </c>
+      <c r="D962">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>8.3943700000000003</v>
+      </c>
+      <c r="B963">
+        <v>-22.005707000000001</v>
+      </c>
+      <c r="C963">
+        <v>19.194914000000001</v>
+      </c>
+      <c r="D963">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>3.7684734</v>
+      </c>
+      <c r="B964">
+        <v>-18.105553</v>
+      </c>
+      <c r="C964">
+        <v>2.4971523000000002</v>
+      </c>
+      <c r="D964">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>-0.75177930000000004</v>
+      </c>
+      <c r="B965">
+        <v>-11.039963999999999</v>
+      </c>
+      <c r="C965">
+        <v>-1.0989386000000001</v>
+      </c>
+      <c r="D965">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>2.7269956999999998</v>
+      </c>
+      <c r="B966">
+        <v>-7.8939823999999996</v>
+      </c>
+      <c r="C966">
+        <v>8.068759</v>
+      </c>
+      <c r="D966">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>5.6338559999999998</v>
+      </c>
+      <c r="B967">
+        <v>-4.6998179999999996</v>
+      </c>
+      <c r="C967">
+        <v>7.4893622000000004</v>
+      </c>
+      <c r="D967">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>3.3806129</v>
+      </c>
+      <c r="B968">
+        <v>-2.4756045000000002</v>
+      </c>
+      <c r="C968">
+        <v>8.0950959999999998</v>
+      </c>
+      <c r="D968">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>4.0438065999999999</v>
+      </c>
+      <c r="B969">
+        <v>-2.147599</v>
+      </c>
+      <c r="C969">
+        <v>9.6513259999999992</v>
+      </c>
+      <c r="D969">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>4.0581716999999999</v>
+      </c>
+      <c r="B970">
+        <v>-5.2627544000000004</v>
+      </c>
+      <c r="C970">
+        <v>6.9937624999999999</v>
+      </c>
+      <c r="D970">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>2.2361844</v>
+      </c>
+      <c r="B971">
+        <v>-8.9139119999999998</v>
+      </c>
+      <c r="C971">
+        <v>4.7860092999999999</v>
+      </c>
+      <c r="D971">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>3.8067807999999999</v>
+      </c>
+      <c r="B972">
+        <v>-9.0120740000000001</v>
+      </c>
+      <c r="C972">
+        <v>5.7655370000000001</v>
+      </c>
+      <c r="D972">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>3.6415807999999998</v>
+      </c>
+      <c r="B973">
+        <v>-7.5851300000000004</v>
+      </c>
+      <c r="C973">
+        <v>5.6961050000000002</v>
+      </c>
+      <c r="D973">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>3.0837319999999999</v>
+      </c>
+      <c r="B974">
+        <v>-6.8572930000000003</v>
+      </c>
+      <c r="C974">
+        <v>5.6218849999999998</v>
+      </c>
+      <c r="D974">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>3.6966473999999998</v>
+      </c>
+      <c r="B975">
+        <v>-6.3664820000000004</v>
+      </c>
+      <c r="C975">
+        <v>6.6202670000000001</v>
+      </c>
+      <c r="D975">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>4.5154642999999997</v>
+      </c>
+      <c r="B976">
+        <v>-6.4502788000000004</v>
+      </c>
+      <c r="C976">
+        <v>6.0600240000000003</v>
+      </c>
+      <c r="D976">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>3.8714241999999999</v>
+      </c>
+      <c r="B977">
+        <v>-7.1422030000000003</v>
+      </c>
+      <c r="C977">
+        <v>4.6639049999999997</v>
+      </c>
+      <c r="D977">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>3.8259344</v>
+      </c>
+      <c r="B978">
+        <v>-7.7670893999999997</v>
+      </c>
+      <c r="C978">
+        <v>5.4973865000000002</v>
+      </c>
+      <c r="D978">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>3.8307228000000002</v>
+      </c>
+      <c r="B979">
+        <v>-7.2020580000000001</v>
+      </c>
+      <c r="C979">
+        <v>5.9810150000000002</v>
+      </c>
+      <c r="D979">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>4.1683054000000004</v>
+      </c>
+      <c r="B980">
+        <v>-6.8141974999999997</v>
+      </c>
+      <c r="C980">
+        <v>5.9187659999999997</v>
+      </c>
+      <c r="D980">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>4.1898530000000003</v>
+      </c>
+      <c r="B981">
+        <v>-6.7327943000000001</v>
+      </c>
+      <c r="C981">
+        <v>5.2148705</v>
+      </c>
+      <c r="D981">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>4.3646297000000001</v>
+      </c>
+      <c r="B982">
+        <v>-7.1062900000000004</v>
+      </c>
+      <c r="C982">
+        <v>5.3824649999999998</v>
+      </c>
+      <c r="D982">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>3.9169139999999998</v>
+      </c>
+      <c r="B983">
+        <v>-7.2595185999999998</v>
+      </c>
+      <c r="C983">
+        <v>5.6530094000000002</v>
+      </c>
+      <c r="D983">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>3.4763807999999998</v>
+      </c>
+      <c r="B984">
+        <v>-7.1924809999999999</v>
+      </c>
+      <c r="C984">
+        <v>5.3297920000000003</v>
+      </c>
+      <c r="D984">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>3.8187517999999998</v>
+      </c>
+      <c r="B985">
+        <v>-7.3217682999999996</v>
+      </c>
+      <c r="C985">
+        <v>4.9874215</v>
+      </c>
+      <c r="D985">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>4.0414123999999996</v>
+      </c>
+      <c r="B986">
+        <v>-7.3481044999999998</v>
+      </c>
+      <c r="C986">
+        <v>5.1191025000000003</v>
+      </c>
+      <c r="D986">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>4.0677485000000004</v>
+      </c>
+      <c r="B987">
+        <v>-7.2762779999999996</v>
+      </c>
+      <c r="C987">
+        <v>5.5237226000000001</v>
+      </c>
+      <c r="D987">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>4.2257660000000001</v>
+      </c>
+      <c r="B988">
+        <v>-7.0823479999999996</v>
+      </c>
+      <c r="C988">
+        <v>5.0736127</v>
+      </c>
+      <c r="D988">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>4.2090069999999997</v>
+      </c>
+      <c r="B989">
+        <v>-7.0512233000000002</v>
+      </c>
+      <c r="C989">
+        <v>4.6088380000000004</v>
+      </c>
+      <c r="D989">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>4.4675802999999998</v>
+      </c>
+      <c r="B990">
+        <v>-7.4127479999999997</v>
+      </c>
+      <c r="C990">
+        <v>5.6625860000000001</v>
+      </c>
+      <c r="D990">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>4.6327800000000003</v>
+      </c>
+      <c r="B991">
+        <v>-6.8381394999999996</v>
+      </c>
+      <c r="C991">
+        <v>5.2986674000000002</v>
+      </c>
+      <c r="D991">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>4.5992613000000002</v>
+      </c>
+      <c r="B992">
+        <v>-7.0129159999999997</v>
+      </c>
+      <c r="C992">
+        <v>4.661511</v>
+      </c>
+      <c r="D992">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>4.1922474000000003</v>
+      </c>
+      <c r="B993">
+        <v>-7.1852983999999998</v>
+      </c>
+      <c r="C993">
+        <v>5.7703249999999997</v>
+      </c>
+      <c r="D993">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>4.3239283999999998</v>
+      </c>
+      <c r="B994">
+        <v>-6.7136407</v>
+      </c>
+      <c r="C994">
+        <v>5.5548472000000002</v>
+      </c>
+      <c r="D994">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>4.1922474000000003</v>
+      </c>
+      <c r="B995">
+        <v>-7.226</v>
+      </c>
+      <c r="C995">
+        <v>5.2364182000000001</v>
+      </c>
+      <c r="D995">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>3.9073372000000002</v>
+      </c>
+      <c r="B996">
+        <v>-7.0272813000000003</v>
+      </c>
+      <c r="C996">
+        <v>5.0616417</v>
+      </c>
+      <c r="D996">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>3.7924153999999999</v>
+      </c>
+      <c r="B997">
+        <v>-7.0344639999999998</v>
+      </c>
+      <c r="C997">
+        <v>6.1629744000000004</v>
+      </c>
+      <c r="D997">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>3.6703112</v>
+      </c>
+      <c r="B998">
+        <v>-6.8381394999999996</v>
+      </c>
+      <c r="C998">
+        <v>6.08636</v>
+      </c>
+      <c r="D998">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>4.2712560000000002</v>
+      </c>
+      <c r="B999">
+        <v>-6.8070149999999998</v>
+      </c>
+      <c r="C999">
+        <v>5.80145</v>
+      </c>
+      <c r="D999">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>4.6591167000000002</v>
+      </c>
+      <c r="B1000">
+        <v>-6.8094089999999996</v>
+      </c>
+      <c r="C1000">
+        <v>5.0137577000000002</v>
+      </c>
+      <c r="D1000">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>4.9946039999999998</v>
+      </c>
+      <c r="B1001">
+        <v>-6.8836293</v>
+      </c>
+      <c r="C1001">
+        <v>5.3944359999999998</v>
+      </c>
+      <c r="D1001">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <v>4.8458642999999997</v>
+      </c>
+      <c r="B1002">
+        <v>-6.6633624999999999</v>
+      </c>
+      <c r="C1002">
+        <v>5.4495025000000004</v>
+      </c>
+      <c r="D1002">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1003">
+        <v>4.5106760000000001</v>
+      </c>
+      <c r="B1003">
+        <v>-6.598719</v>
+      </c>
+      <c r="C1003">
+        <v>5.4351373000000001</v>
+      </c>
+      <c r="D1003">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1004">
+        <v>4.3287167999999996</v>
+      </c>
+      <c r="B1004">
+        <v>-6.9626380000000001</v>
+      </c>
+      <c r="C1004">
+        <v>5.5117516999999996</v>
+      </c>
+      <c r="D1004">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1005">
+        <v>4.5633483000000004</v>
+      </c>
+      <c r="B1005">
+        <v>-6.8788410000000004</v>
+      </c>
+      <c r="C1005">
+        <v>5.6051254000000004</v>
+      </c>
+      <c r="D1005">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1006">
+        <v>4.7955860000000001</v>
+      </c>
+      <c r="B1006">
+        <v>-6.5652002999999999</v>
+      </c>
+      <c r="C1006">
+        <v>5.6625860000000001</v>
+      </c>
+      <c r="D1006">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1007">
+        <v>4.9706619999999999</v>
+      </c>
+      <c r="B1007">
+        <v>-6.4550669999999997</v>
+      </c>
+      <c r="C1007">
+        <v>5.2627544000000004</v>
+      </c>
+      <c r="D1007">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1008">
+        <v>5.23163</v>
+      </c>
+      <c r="B1008">
+        <v>-6.7543420000000003</v>
+      </c>
+      <c r="C1008">
+        <v>5.0448823000000003</v>
+      </c>
+      <c r="D1008">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1009">
+        <v>4.9539027000000004</v>
+      </c>
+      <c r="B1009">
+        <v>-6.7734956999999998</v>
+      </c>
+      <c r="C1009">
+        <v>5.2579659999999997</v>
+      </c>
+      <c r="D1009">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1010">
+        <v>4.4244846999999998</v>
+      </c>
+      <c r="B1010">
+        <v>-6.6418147000000003</v>
+      </c>
+      <c r="C1010">
+        <v>5.6577979999999997</v>
+      </c>
+      <c r="D1010">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1011">
+        <v>4.0150759999999996</v>
+      </c>
+      <c r="B1011">
+        <v>-6.6513914999999999</v>
+      </c>
+      <c r="C1011">
+        <v>5.7248353999999999</v>
+      </c>
+      <c r="D1011">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1012">
+        <v>4.2712560000000002</v>
+      </c>
+      <c r="B1012">
+        <v>-6.9458785000000001</v>
+      </c>
+      <c r="C1012">
+        <v>5.7655370000000001</v>
+      </c>
+      <c r="D1012">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1013">
+        <v>4.5657424999999998</v>
+      </c>
+      <c r="B1013">
+        <v>-6.6513914999999999</v>
+      </c>
+      <c r="C1013">
+        <v>5.743989</v>
+      </c>
+      <c r="D1013">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1014">
+        <v>4.8506527000000004</v>
+      </c>
+      <c r="B1014">
+        <v>-6.6035075000000001</v>
+      </c>
+      <c r="C1014">
+        <v>5.4566850000000002</v>
+      </c>
+      <c r="D1014">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1015">
+        <v>4.8817773000000004</v>
+      </c>
+      <c r="B1015">
+        <v>-6.6154785</v>
+      </c>
+      <c r="C1015">
+        <v>5.4758386999999997</v>
+      </c>
+      <c r="D1015">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1016">
+        <v>4.6806644999999998</v>
+      </c>
+      <c r="B1016">
+        <v>-6.7663130000000002</v>
+      </c>
+      <c r="C1016">
+        <v>5.4207720000000004</v>
+      </c>
+      <c r="D1016">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1017">
+        <v>4.3909659999999997</v>
+      </c>
+      <c r="B1017">
+        <v>-6.7136407</v>
+      </c>
+      <c r="C1017">
+        <v>5.5069632999999998</v>
+      </c>
+      <c r="D1017">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1018">
+        <v>4.3550529999999998</v>
+      </c>
+      <c r="B1018">
+        <v>-6.7854666999999997</v>
+      </c>
+      <c r="C1018">
+        <v>5.5476646000000001</v>
+      </c>
+      <c r="D1018">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1019">
+        <v>4.7381253000000001</v>
+      </c>
+      <c r="B1019">
+        <v>-6.7064579999999996</v>
+      </c>
+      <c r="C1019">
+        <v>5.6482210000000004</v>
+      </c>
+      <c r="D1019">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1020">
+        <v>4.9060186999999997</v>
+      </c>
+      <c r="B1020">
+        <v>-6.6226609999999999</v>
+      </c>
+      <c r="C1020">
+        <v>5.4973865000000002</v>
+      </c>
+      <c r="D1020">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1021">
+        <v>4.958691</v>
+      </c>
+      <c r="B1021">
+        <v>-6.6346319999999999</v>
+      </c>
+      <c r="C1021">
+        <v>5.1454386999999997</v>
+      </c>
+      <c r="D1021">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1022">
+        <v>4.8988360000000002</v>
+      </c>
+      <c r="B1022">
+        <v>-6.7639189999999996</v>
+      </c>
+      <c r="C1022">
+        <v>5.2292356</v>
+      </c>
+      <c r="D1022">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1023">
+        <v>4.6423569999999996</v>
+      </c>
+      <c r="B1023">
+        <v>-6.7232174999999996</v>
+      </c>
+      <c r="C1023">
+        <v>5.51654</v>
+      </c>
+      <c r="D1023">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1024">
+        <v>4.5034932999999997</v>
+      </c>
+      <c r="B1024">
+        <v>-6.7399769999999997</v>
+      </c>
+      <c r="C1024">
+        <v>5.5309052000000003</v>
+      </c>
+      <c r="D1024">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1025">
+        <v>4.5561657000000002</v>
+      </c>
+      <c r="B1025">
+        <v>-6.7543420000000003</v>
+      </c>
+      <c r="C1025">
+        <v>5.3776764999999997</v>
+      </c>
+      <c r="D1025">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1026">
+        <v>4.6974239999999998</v>
+      </c>
+      <c r="B1026">
+        <v>-6.7854666999999997</v>
+      </c>
+      <c r="C1026">
+        <v>5.2459949999999997</v>
+      </c>
+      <c r="D1026">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1027">
+        <v>4.7093949999999998</v>
+      </c>
+      <c r="B1027">
+        <v>-6.7160349999999998</v>
+      </c>
+      <c r="C1027">
+        <v>5.4614735000000003</v>
+      </c>
+      <c r="D1027">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1028">
+        <v>4.7189717</v>
+      </c>
+      <c r="B1028">
+        <v>-6.6729393000000004</v>
+      </c>
+      <c r="C1028">
+        <v>5.4064069999999997</v>
+      </c>
+      <c r="D1028">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1029">
+        <v>4.8698062999999996</v>
+      </c>
+      <c r="B1029">
+        <v>-6.7687073</v>
+      </c>
+      <c r="C1029">
+        <v>5.243601</v>
+      </c>
+      <c r="D1029">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1030">
+        <v>4.7453079999999996</v>
+      </c>
+      <c r="B1030">
+        <v>-6.7782840000000002</v>
+      </c>
+      <c r="C1030">
+        <v>5.3489459999999998</v>
+      </c>
+      <c r="D1030">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1031">
+        <v>4.6208090000000004</v>
+      </c>
+      <c r="B1031">
+        <v>-6.6992754999999997</v>
+      </c>
+      <c r="C1031">
+        <v>5.3680997000000001</v>
+      </c>
+      <c r="D1031">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1032">
+        <v>4.5489829999999998</v>
+      </c>
+      <c r="B1032">
+        <v>-6.8118033000000002</v>
+      </c>
+      <c r="C1032">
+        <v>5.5021750000000003</v>
+      </c>
+      <c r="D1032">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1033">
+        <v>4.6160207</v>
+      </c>
+      <c r="B1033">
+        <v>-6.7304000000000004</v>
+      </c>
+      <c r="C1033">
+        <v>5.4734445000000003</v>
+      </c>
+      <c r="D1033">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1034">
+        <v>4.6567220000000002</v>
+      </c>
+      <c r="B1034">
+        <v>-6.7232174999999996</v>
+      </c>
+      <c r="C1034">
+        <v>5.4255604999999996</v>
+      </c>
+      <c r="D1034">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1035">
+        <v>4.6375685000000004</v>
+      </c>
+      <c r="B1035">
+        <v>-6.7543420000000003</v>
+      </c>
+      <c r="C1035">
+        <v>5.3561287000000002</v>
+      </c>
+      <c r="D1035">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1036">
+        <v>4.6519336999999998</v>
+      </c>
+      <c r="B1036">
+        <v>-6.7878610000000004</v>
+      </c>
+      <c r="C1036">
+        <v>5.4734445000000003</v>
+      </c>
+      <c r="D1036">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1037">
+        <v>4.5370119999999998</v>
+      </c>
+      <c r="B1037">
+        <v>-6.65618</v>
+      </c>
+      <c r="C1037">
+        <v>5.504569</v>
+      </c>
+      <c r="D1037">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1038">
+        <v>4.6016554999999997</v>
+      </c>
+      <c r="B1038">
+        <v>-6.7734956999999998</v>
+      </c>
+      <c r="C1038">
+        <v>5.4830212999999999</v>
+      </c>
+      <c r="D1038">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1039">
+        <v>4.6830587000000001</v>
+      </c>
+      <c r="B1039">
+        <v>-6.7232174999999996</v>
+      </c>
+      <c r="C1039">
+        <v>5.4159837</v>
+      </c>
+      <c r="D1039">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1040">
+        <v>4.7165774999999996</v>
+      </c>
+      <c r="B1040">
+        <v>-6.6753334999999998</v>
+      </c>
+      <c r="C1040">
+        <v>5.5189342000000003</v>
+      </c>
+      <c r="D1040">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1041">
+        <v>4.6662993000000004</v>
+      </c>
+      <c r="B1041">
+        <v>-6.6585739999999998</v>
+      </c>
+      <c r="C1041">
+        <v>5.3728879999999997</v>
+      </c>
+      <c r="D1041">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1042">
+        <v>4.7165774999999996</v>
+      </c>
+      <c r="B1042">
         <v>-6.7830725000000003</v>
       </c>
-      <c r="C874">
-        <v>5.6841340000000002</v>
-      </c>
-      <c r="D874">
+      <c r="C1042">
+        <v>5.3130325999999997</v>
+      </c>
+      <c r="D1042">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1043">
+        <v>4.6255974999999996</v>
+      </c>
+      <c r="B1043">
+        <v>-6.6896987000000001</v>
+      </c>
+      <c r="C1043">
+        <v>5.4303489999999996</v>
+      </c>
+      <c r="D1043">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1044">
+        <v>4.5729249999999997</v>
+      </c>
+      <c r="B1044">
+        <v>-6.6681509999999999</v>
+      </c>
+      <c r="C1044">
+        <v>5.5213283999999998</v>
+      </c>
+      <c r="D1044">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1045">
+        <v>4.6974239999999998</v>
+      </c>
+      <c r="B1045">
+        <v>-6.7399769999999997</v>
+      </c>
+      <c r="C1045">
+        <v>5.3944359999999998</v>
+      </c>
+      <c r="D1045">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1046">
+        <v>4.7907976999999997</v>
+      </c>
+      <c r="B1046">
+        <v>-6.6801219999999999</v>
+      </c>
+      <c r="C1046">
+        <v>5.4231663000000001</v>
+      </c>
+      <c r="D1046">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1047">
+        <v>4.9443260000000002</v>
+      </c>
+      <c r="B1047">
+        <v>-6.5747770000000001</v>
+      </c>
+      <c r="C1047">
+        <v>5.4830212999999999</v>
+      </c>
+      <c r="D1047">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1048">
+        <v>4.819528</v>
+      </c>
+      <c r="B1048">
+        <v>-6.5939306999999996</v>
+      </c>
+      <c r="C1048">
+        <v>5.3704939999999999</v>
+      </c>
+      <c r="D1048">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1049">
+        <v>4.7453079999999996</v>
+      </c>
+      <c r="B1049">
+        <v>-6.6801219999999999</v>
+      </c>
+      <c r="C1049">
+        <v>5.4830212999999999</v>
+      </c>
+      <c r="D1049">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1050">
+        <v>4.5681367000000002</v>
+      </c>
+      <c r="B1050">
+        <v>-6.6777277000000002</v>
+      </c>
+      <c r="C1050">
+        <v>5.5428762000000003</v>
+      </c>
+      <c r="D1050">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1051">
+        <v>4.5848959999999996</v>
+      </c>
+      <c r="B1051">
+        <v>-6.7304000000000004</v>
+      </c>
+      <c r="C1051">
+        <v>5.4064069999999997</v>
+      </c>
+      <c r="D1051">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1052">
+        <v>4.7022123000000002</v>
+      </c>
+      <c r="B1052">
+        <v>-6.6944869999999996</v>
+      </c>
+      <c r="C1052">
+        <v>5.4878096999999997</v>
+      </c>
+      <c r="D1052">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1053">
+        <v>4.7357310000000004</v>
+      </c>
+      <c r="B1053">
+        <v>-6.6035075000000001</v>
+      </c>
+      <c r="C1053">
+        <v>5.5141460000000002</v>
+      </c>
+      <c r="D1053">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1054">
+        <v>4.7500963</v>
+      </c>
+      <c r="B1054">
+        <v>-6.598719</v>
+      </c>
+      <c r="C1054">
+        <v>5.4902040000000003</v>
+      </c>
+      <c r="D1054">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1055">
+        <v>4.8051630000000003</v>
+      </c>
+      <c r="B1055">
+        <v>-6.6729393000000004</v>
+      </c>
+      <c r="C1055">
+        <v>5.4351373000000001</v>
+      </c>
+      <c r="D1055">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1056">
+        <v>4.7955860000000001</v>
+      </c>
+      <c r="B1056">
+        <v>-6.5795655000000002</v>
+      </c>
+      <c r="C1056">
+        <v>5.5716066</v>
+      </c>
+      <c r="D1056">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1057">
+        <v>4.7979802999999999</v>
+      </c>
+      <c r="B1057">
+        <v>-6.5364699999999996</v>
+      </c>
+      <c r="C1057">
+        <v>5.6170964000000003</v>
+      </c>
+      <c r="D1057">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1058">
+        <v>4.7860092999999999</v>
+      </c>
+      <c r="B1058">
+        <v>-6.5556235000000003</v>
+      </c>
+      <c r="C1058">
+        <v>5.5931544000000004</v>
+      </c>
+      <c r="D1058">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1059">
+        <v>4.7453079999999996</v>
+      </c>
+      <c r="B1059">
+        <v>-6.6513914999999999</v>
+      </c>
+      <c r="C1059">
+        <v>5.4854155000000002</v>
+      </c>
+      <c r="D1059">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1060">
+        <v>4.7261543000000001</v>
+      </c>
+      <c r="B1060">
+        <v>-6.6418147000000003</v>
+      </c>
+      <c r="C1060">
+        <v>5.4375315000000004</v>
+      </c>
+      <c r="D1060">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1061">
+        <v>4.6710877000000002</v>
+      </c>
+      <c r="B1061">
+        <v>-6.6777277000000002</v>
+      </c>
+      <c r="C1061">
+        <v>5.5596356</v>
+      </c>
+      <c r="D1061">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1062">
+        <v>4.5394062999999996</v>
+      </c>
+      <c r="B1062">
+        <v>-6.6585739999999998</v>
+      </c>
+      <c r="C1062">
+        <v>5.56203</v>
+      </c>
+      <c r="D1062">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1063">
+        <v>4.5872903000000003</v>
+      </c>
+      <c r="B1063">
+        <v>-6.7232174999999996</v>
+      </c>
+      <c r="C1063">
+        <v>5.5069632999999998</v>
+      </c>
+      <c r="D1063">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1064">
+        <v>4.6591167000000002</v>
+      </c>
+      <c r="B1064">
+        <v>-6.7351884999999996</v>
+      </c>
+      <c r="C1064">
+        <v>5.3250035999999996</v>
+      </c>
+      <c r="D1064">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1065">
+        <v>4.6208090000000004</v>
+      </c>
+      <c r="B1065">
+        <v>-6.6801219999999999</v>
+      </c>
+      <c r="C1065">
+        <v>5.4518966999999998</v>
+      </c>
+      <c r="D1065">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1066">
+        <v>4.6208090000000004</v>
+      </c>
+      <c r="B1066">
+        <v>-6.6873044999999998</v>
+      </c>
+      <c r="C1066">
+        <v>5.5093575000000001</v>
+      </c>
+      <c r="D1066">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1067">
+        <v>4.5729249999999997</v>
+      </c>
+      <c r="B1067">
+        <v>-6.7327943000000001</v>
+      </c>
+      <c r="C1067">
+        <v>5.4064069999999997</v>
+      </c>
+      <c r="D1067">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1068">
+        <v>4.5992613000000002</v>
+      </c>
+      <c r="B1068">
+        <v>-6.7806782999999999</v>
+      </c>
+      <c r="C1068">
+        <v>5.3704939999999999</v>
+      </c>
+      <c r="D1068">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1069">
+        <v>4.6854529999999999</v>
+      </c>
+      <c r="B1069">
+        <v>-6.7208233000000002</v>
+      </c>
+      <c r="C1069">
+        <v>5.4016184999999997</v>
+      </c>
+      <c r="D1069">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1070">
+        <v>4.6399626999999999</v>
+      </c>
+      <c r="B1070">
+        <v>-6.6801219999999999</v>
+      </c>
+      <c r="C1070">
+        <v>5.51654</v>
+      </c>
+      <c r="D1070">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1071">
+        <v>4.661511</v>
+      </c>
+      <c r="B1071">
+        <v>-6.7088523000000002</v>
+      </c>
+      <c r="C1071">
+        <v>5.5309052000000003</v>
+      </c>
+      <c r="D1071">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1072">
+        <v>4.6351743000000001</v>
+      </c>
+      <c r="B1072">
+        <v>-6.6825159999999997</v>
+      </c>
+      <c r="C1072">
+        <v>5.4040127</v>
+      </c>
+      <c r="D1072">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1073">
+        <v>4.5872903000000003</v>
+      </c>
+      <c r="B1073">
+        <v>-6.7519479999999996</v>
+      </c>
+      <c r="C1073">
+        <v>5.4949922999999998</v>
+      </c>
+      <c r="D1073">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1074">
+        <v>4.5537714999999999</v>
+      </c>
+      <c r="B1074">
+        <v>-6.6489973000000004</v>
+      </c>
+      <c r="C1074">
+        <v>5.6506150000000002</v>
+      </c>
+      <c r="D1074">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1075">
+        <v>4.501099</v>
+      </c>
+      <c r="B1075">
+        <v>-6.7471595000000004</v>
+      </c>
+      <c r="C1075">
+        <v>5.6937110000000004</v>
+      </c>
+      <c r="D1075">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1076">
+        <v>4.4987050000000002</v>
+      </c>
+      <c r="B1076">
+        <v>-6.7232174999999996</v>
+      </c>
+      <c r="C1076">
+        <v>5.4279546999999999</v>
+      </c>
+      <c r="D1076">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1077">
+        <v>4.5274352999999996</v>
+      </c>
+      <c r="B1077">
+        <v>-6.7902550000000002</v>
+      </c>
+      <c r="C1077">
+        <v>5.5500590000000001</v>
+      </c>
+      <c r="D1077">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1078">
+        <v>4.3622354999999997</v>
+      </c>
+      <c r="B1078">
+        <v>-6.7351884999999996</v>
+      </c>
+      <c r="C1078">
+        <v>5.5979429999999999</v>
+      </c>
+      <c r="D1078">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1079">
+        <v>4.4556092999999999</v>
+      </c>
+      <c r="B1079">
+        <v>-6.7615246999999998</v>
+      </c>
+      <c r="C1079">
+        <v>5.6123079999999996</v>
+      </c>
+      <c r="D1079">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1080">
+        <v>4.5394062999999996</v>
+      </c>
+      <c r="B1080">
+        <v>-6.7399769999999997</v>
+      </c>
+      <c r="C1080">
+        <v>5.5332993999999998</v>
+      </c>
+      <c r="D1080">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1081">
+        <v>4.6471453</v>
+      </c>
+      <c r="B1081">
+        <v>-6.6585739999999998</v>
+      </c>
+      <c r="C1081">
+        <v>5.5213283999999998</v>
+      </c>
+      <c r="D1081">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1082">
+        <v>4.7453079999999996</v>
+      </c>
+      <c r="B1082">
+        <v>-6.6082960000000002</v>
+      </c>
+      <c r="C1082">
+        <v>5.56203</v>
+      </c>
+      <c r="D1082">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1083">
+        <v>4.7907976999999997</v>
+      </c>
+      <c r="B1083">
+        <v>-6.6346319999999999</v>
+      </c>
+      <c r="C1083">
+        <v>5.4902040000000003</v>
+      </c>
+      <c r="D1083">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1084">
+        <v>4.7429136999999999</v>
+      </c>
+      <c r="B1084">
+        <v>-6.6777277000000002</v>
+      </c>
+      <c r="C1084">
+        <v>5.5309052000000003</v>
+      </c>
+      <c r="D1084">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1085">
+        <v>4.6160207</v>
+      </c>
+      <c r="B1085">
+        <v>-6.6873044999999998</v>
+      </c>
+      <c r="C1085">
+        <v>5.5548472000000002</v>
+      </c>
+      <c r="D1085">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1086">
+        <v>4.6303859999999997</v>
+      </c>
+      <c r="B1086">
+        <v>-6.6801219999999999</v>
+      </c>
+      <c r="C1086">
+        <v>5.4614735000000003</v>
+      </c>
+      <c r="D1086">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1087">
+        <v>4.7668556999999998</v>
+      </c>
+      <c r="B1087">
+        <v>-6.7375826999999999</v>
+      </c>
+      <c r="C1087">
+        <v>5.4542909999999996</v>
+      </c>
+      <c r="D1087">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1088">
+        <v>4.5992613000000002</v>
+      </c>
+      <c r="B1088">
+        <v>-6.7160349999999998</v>
+      </c>
+      <c r="C1088">
+        <v>5.4255604999999996</v>
+      </c>
+      <c r="D1088">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1089">
+        <v>4.4939165000000001</v>
+      </c>
+      <c r="B1089">
+        <v>-6.7782840000000002</v>
+      </c>
+      <c r="C1089">
+        <v>5.4997806999999996</v>
+      </c>
+      <c r="D1089">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1090">
+        <v>4.3813890000000004</v>
+      </c>
+      <c r="B1090">
+        <v>-6.7758900000000004</v>
+      </c>
+      <c r="C1090">
+        <v>5.5572413999999997</v>
+      </c>
+      <c r="D1090">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1091">
+        <v>4.4556092999999999</v>
+      </c>
+      <c r="B1091">
+        <v>-6.7734956999999998</v>
+      </c>
+      <c r="C1091">
+        <v>5.3992243000000002</v>
+      </c>
+      <c r="D1091">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1092">
+        <v>4.5944729999999998</v>
+      </c>
+      <c r="B1092">
+        <v>-6.7974376999999997</v>
+      </c>
+      <c r="C1092">
+        <v>5.4255604999999996</v>
+      </c>
+      <c r="D1092">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1093">
+        <v>4.5968669999999996</v>
+      </c>
+      <c r="B1093">
+        <v>-6.7663130000000002</v>
+      </c>
+      <c r="C1093">
+        <v>5.4710502999999999</v>
+      </c>
+      <c r="D1093">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1094">
+        <v>4.4460325000000003</v>
+      </c>
+      <c r="B1094">
+        <v>-6.7687073</v>
+      </c>
+      <c r="C1094">
+        <v>5.5141460000000002</v>
+      </c>
+      <c r="D1094">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1095">
+        <v>4.3119573999999998</v>
+      </c>
+      <c r="B1095">
+        <v>-6.7926492999999999</v>
+      </c>
+      <c r="C1095">
+        <v>5.6506150000000002</v>
+      </c>
+      <c r="D1095">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1096">
+        <v>4.2975919999999999</v>
+      </c>
+      <c r="B1096">
+        <v>-6.8644756999999998</v>
+      </c>
+      <c r="C1096">
+        <v>5.5668179999999996</v>
+      </c>
+      <c r="D1096">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1097">
+        <v>4.3646297000000001</v>
+      </c>
+      <c r="B1097">
+        <v>-6.8788410000000004</v>
+      </c>
+      <c r="C1097">
+        <v>5.4495025000000004</v>
+      </c>
+      <c r="D1097">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1098">
+        <v>4.4723686999999996</v>
+      </c>
+      <c r="B1098">
+        <v>-6.8141974999999997</v>
+      </c>
+      <c r="C1098">
+        <v>5.4423199999999996</v>
+      </c>
+      <c r="D1098">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1099">
+        <v>4.4053310000000003</v>
+      </c>
+      <c r="B1099">
+        <v>-6.8189859999999998</v>
+      </c>
+      <c r="C1099">
+        <v>5.51654</v>
+      </c>
+      <c r="D1099">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1100">
+        <v>4.3861774999999996</v>
+      </c>
+      <c r="B1100">
+        <v>-6.8237743000000002</v>
+      </c>
+      <c r="C1100">
+        <v>5.5572413999999997</v>
+      </c>
+      <c r="D1100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1101">
+        <v>4.2784386000000003</v>
+      </c>
+      <c r="B1101">
+        <v>-6.8165917</v>
+      </c>
+      <c r="C1101">
+        <v>5.5237226000000001</v>
+      </c>
+      <c r="D1101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1102">
+        <v>4.3287167999999996</v>
+      </c>
+      <c r="B1102">
+        <v>-6.8046207000000001</v>
+      </c>
+      <c r="C1102">
+        <v>5.5309052000000003</v>
+      </c>
+      <c r="D1102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1103">
+        <v>4.2928040000000003</v>
+      </c>
+      <c r="B1103">
+        <v>-6.8692640000000003</v>
+      </c>
+      <c r="C1103">
+        <v>5.528511</v>
+      </c>
+      <c r="D1103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1104">
+        <v>4.3622354999999997</v>
+      </c>
+      <c r="B1104">
+        <v>-6.8692640000000003</v>
+      </c>
+      <c r="C1104">
+        <v>5.5428762000000003</v>
+      </c>
+      <c r="D1104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1105">
+        <v>4.3119573999999998</v>
+      </c>
+      <c r="B1105">
+        <v>-6.8285627</v>
+      </c>
+      <c r="C1105">
+        <v>5.5692123999999996</v>
+      </c>
+      <c r="D1105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1106">
+        <v>4.2712560000000002</v>
+      </c>
+      <c r="B1106">
+        <v>-6.8381394999999996</v>
+      </c>
+      <c r="C1106">
+        <v>5.5811833999999996</v>
+      </c>
+      <c r="D1106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1107">
+        <v>4.3167457999999996</v>
+      </c>
+      <c r="B1107">
+        <v>-6.8812350000000002</v>
+      </c>
+      <c r="C1107">
+        <v>5.51654</v>
+      </c>
+      <c r="D1107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1108">
+        <v>4.3119573999999998</v>
+      </c>
+      <c r="B1108">
+        <v>-6.8692640000000003</v>
+      </c>
+      <c r="C1108">
+        <v>5.5548472000000002</v>
+      </c>
+      <c r="D1108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1109">
+        <v>4.3598413000000003</v>
+      </c>
+      <c r="B1109">
+        <v>-6.8333510000000004</v>
+      </c>
+      <c r="C1109">
+        <v>5.5811833999999996</v>
+      </c>
+      <c r="D1109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1110">
+        <v>4.2736499999999999</v>
+      </c>
+      <c r="B1110">
+        <v>-6.8309569999999997</v>
+      </c>
+      <c r="C1110">
+        <v>5.5787890000000004</v>
+      </c>
+      <c r="D1110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1111">
+        <v>4.2305545999999996</v>
+      </c>
+      <c r="B1111">
+        <v>-6.8692640000000003</v>
+      </c>
+      <c r="C1111">
+        <v>5.5093575000000001</v>
+      </c>
+      <c r="D1111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1112">
+        <v>4.2377370000000001</v>
+      </c>
+      <c r="B1112">
+        <v>-6.8572930000000003</v>
+      </c>
+      <c r="C1112">
+        <v>5.5955485999999999</v>
+      </c>
+      <c r="D1112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1113">
+        <v>4.2712560000000002</v>
+      </c>
+      <c r="B1113">
+        <v>-6.8237743000000002</v>
+      </c>
+      <c r="C1113">
+        <v>5.5955485999999999</v>
+      </c>
+      <c r="D1113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1114">
+        <v>4.3526587000000001</v>
+      </c>
+      <c r="B1114">
+        <v>-6.8429279999999997</v>
+      </c>
+      <c r="C1114">
+        <v>5.5596356</v>
+      </c>
+      <c r="D1114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1115">
+        <v>4.4053310000000003</v>
+      </c>
+      <c r="B1115">
+        <v>-6.8070149999999998</v>
+      </c>
+      <c r="C1115">
+        <v>5.4782330000000004</v>
+      </c>
+      <c r="D1115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1116">
+        <v>4.4125136999999999</v>
+      </c>
+      <c r="B1116">
+        <v>-6.8022260000000001</v>
+      </c>
+      <c r="C1116">
+        <v>5.6506150000000002</v>
+      </c>
+      <c r="D1116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1117">
+        <v>4.3718123000000002</v>
+      </c>
+      <c r="B1117">
+        <v>-6.8716583</v>
+      </c>
+      <c r="C1117">
+        <v>5.5596356</v>
+      </c>
+      <c r="D1117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1118">
+        <v>4.2904096000000003</v>
+      </c>
+      <c r="B1118">
+        <v>-6.8381394999999996</v>
+      </c>
+      <c r="C1118">
+        <v>5.5141460000000002</v>
+      </c>
+      <c r="D1118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1119">
+        <v>4.4675802999999998</v>
+      </c>
+      <c r="B1119">
+        <v>-6.8333510000000004</v>
+      </c>
+      <c r="C1119">
+        <v>5.4590793</v>
+      </c>
+      <c r="D1119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1120">
+        <v>4.5777134999999998</v>
+      </c>
+      <c r="B1120">
+        <v>-6.7854666999999997</v>
+      </c>
+      <c r="C1120">
+        <v>5.4973865000000002</v>
+      </c>
+      <c r="D1120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1121">
+        <v>4.4053310000000003</v>
+      </c>
+      <c r="B1121">
+        <v>-6.7471595000000004</v>
+      </c>
+      <c r="C1121">
+        <v>5.5452703999999997</v>
+      </c>
+      <c r="D1121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1122">
+        <v>4.3167457999999996</v>
+      </c>
+      <c r="B1122">
+        <v>-6.7639189999999996</v>
+      </c>
+      <c r="C1122">
+        <v>5.6051254000000004</v>
+      </c>
+      <c r="D1122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1123">
+        <v>4.2760444</v>
+      </c>
+      <c r="B1123">
+        <v>-6.8716583</v>
+      </c>
+      <c r="C1123">
+        <v>5.6051254000000004</v>
+      </c>
+      <c r="D1123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1124">
+        <v>4.3335049999999997</v>
+      </c>
+      <c r="B1124">
+        <v>-6.8381394999999996</v>
+      </c>
+      <c r="C1124">
+        <v>5.6266730000000003</v>
+      </c>
+      <c r="D1124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1125">
+        <v>4.3119573999999998</v>
+      </c>
+      <c r="B1125">
+        <v>-6.7567363</v>
+      </c>
+      <c r="C1125">
+        <v>5.6745570000000001</v>
+      </c>
+      <c r="D1125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1126">
+        <v>4.3358993999999997</v>
+      </c>
+      <c r="B1126">
+        <v>-6.7998320000000003</v>
+      </c>
+      <c r="C1126">
+        <v>5.5213283999999998</v>
+      </c>
+      <c r="D1126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1127">
+        <v>4.4843396999999996</v>
+      </c>
+      <c r="B1127">
+        <v>-6.8405336999999999</v>
+      </c>
+      <c r="C1127">
+        <v>5.5141460000000002</v>
+      </c>
+      <c r="D1127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1128">
+        <v>4.4316673</v>
+      </c>
+      <c r="B1128">
+        <v>-6.8285627</v>
+      </c>
+      <c r="C1128">
+        <v>5.5548472000000002</v>
+      </c>
+      <c r="D1128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1129">
+        <v>4.3981484999999996</v>
+      </c>
+      <c r="B1129">
+        <v>-6.8501105000000004</v>
+      </c>
+      <c r="C1129">
+        <v>5.5572413999999997</v>
+      </c>
+      <c r="D1129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1130">
+        <v>4.4005426999999999</v>
+      </c>
+      <c r="B1130">
+        <v>-7.9562315999999997</v>
+      </c>
+      <c r="C1130">
+        <v>5.2148705</v>
+      </c>
+      <c r="D1130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1131">
+        <v>4.1874589999999996</v>
+      </c>
+      <c r="B1131">
+        <v>-6.4861917</v>
+      </c>
+      <c r="C1131">
+        <v>6.2419830000000003</v>
+      </c>
+      <c r="D1131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1132">
+        <v>4.0677485000000004</v>
+      </c>
+      <c r="B1132">
+        <v>-5.4518966999999998</v>
+      </c>
+      <c r="C1132">
+        <v>6.4526729999999999</v>
+      </c>
+      <c r="D1132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1133">
+        <v>4.7357310000000004</v>
+      </c>
+      <c r="B1133">
+        <v>-6.2012815000000003</v>
+      </c>
+      <c r="C1133">
+        <v>5.7272296000000003</v>
+      </c>
+      <c r="D1133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1134">
+        <v>5.1526212999999998</v>
+      </c>
+      <c r="B1134">
+        <v>-7.0129159999999997</v>
+      </c>
+      <c r="C1134">
+        <v>5.2005052999999997</v>
+      </c>
+      <c r="D1134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1135">
+        <v>4.8506527000000004</v>
+      </c>
+      <c r="B1135">
+        <v>-6.9434842999999997</v>
+      </c>
+      <c r="C1135">
+        <v>5.1406502999999999</v>
+      </c>
+      <c r="D1135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1136">
+        <v>4.2329489999999996</v>
+      </c>
+      <c r="B1136">
+        <v>-6.9386960000000002</v>
+      </c>
+      <c r="C1136">
+        <v>5.5524529999999999</v>
+      </c>
+      <c r="D1136">
         <v>3</v>
       </c>
     </row>
